--- a/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1986C3-AF5E-474B-9D6D-4D8AD4FDCCE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{788B4576-5F22-4FDF-BD13-4FAD359BEE3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1980" windowWidth="21600" windowHeight="11505" xr2:uid="{53BC5EEA-58A2-45B8-93B2-14364AAC8E7E}"/>
+    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{56FC90AA-9DC2-4657-A8A3-B7B69C54BCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
   <si>
     <t>А40</t>
   </si>
@@ -75,25 +75,28 @@
     <t>Ел41</t>
   </si>
   <si>
+    <t>Налагодження електроустановок</t>
+  </si>
+  <si>
+    <t>Григор'єв М.Ю.</t>
+  </si>
+  <si>
+    <t>Надійність електроприводів</t>
+  </si>
+  <si>
+    <t>Монтаж, експлуатація і ремонт електроустаткування</t>
+  </si>
+  <si>
+    <t>Білоконь С.Ф.</t>
+  </si>
+  <si>
     <t>Обчислювальна техніка і програмування</t>
   </si>
   <si>
-    <t>Налагодження електроустановок</t>
-  </si>
-  <si>
-    <t>Григор'єв М.Ю.</t>
-  </si>
-  <si>
     <t>Електроустаткування підприємств і цивільних споруд</t>
   </si>
   <si>
     <t>Конишев В.С.</t>
-  </si>
-  <si>
-    <t>Монтаж, експлуатація і ремонт електроустаткування</t>
-  </si>
-  <si>
-    <t>Білоконь С.Ф.</t>
   </si>
   <si>
     <t>Системи керування електроприводами</t>
@@ -823,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDC52D2-81E6-46CD-9118-2333EDBEFE6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C50C0A-EEF7-405C-AE0F-8BC419B56B2D}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -850,7 +853,7 @@
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -881,17 +884,17 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="9"/>
@@ -950,7 +953,7 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -959,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>215</v>
+        <v>306</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>5</v>
@@ -971,16 +974,16 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="11">
         <v>105</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>4</v>
@@ -989,13 +992,13 @@
         <v>319</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" s="12">
-        <v>717</v>
+        <v>122</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -1059,40 +1062,40 @@
         <v>4</v>
       </c>
       <c r="D4" s="13">
-        <v>403</v>
+        <v>214</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G4" s="13">
-        <v>317</v>
+        <v>104</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="13">
         <v>105</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="13">
-        <v>319</v>
+        <v>152</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" s="14">
         <v>717</v>
@@ -1159,40 +1162,40 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" s="13">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" s="13">
         <v>105</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" s="13">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="14">
         <v>717</v>
@@ -1271,10 +1274,10 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" s="16">
         <v>717</v>
@@ -1334,7 +1337,7 @@
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>5</v>
@@ -1346,37 +1349,37 @@
         <v>7</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="11">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" s="11">
         <v>105</v>
       </c>
       <c r="K7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="11">
         <v>319</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="12">
         <v>717</v>
@@ -1443,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="13">
-        <v>314</v>
+        <v>111</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>17</v>
@@ -1452,31 +1455,31 @@
         <v>18</v>
       </c>
       <c r="G8" s="13">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="H8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="J8" s="13">
         <v>105</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="13">
         <v>319</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="14">
         <v>717</v>
@@ -1543,31 +1546,31 @@
         <v>9</v>
       </c>
       <c r="D9" s="15">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="15">
-        <v>215</v>
+        <v>416</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="15">
         <v>105</v>
       </c>
       <c r="K9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="M9" s="15">
         <v>319</v>
@@ -1636,7 +1639,7 @@
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>8</v>
@@ -1645,40 +1648,40 @@
         <v>9</v>
       </c>
       <c r="D10" s="11">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J10" s="11">
-        <v>105</v>
+        <v>308</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M10" s="11">
         <v>319</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="12">
         <v>717</v>
@@ -1745,34 +1748,34 @@
         <v>9</v>
       </c>
       <c r="D11" s="13">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G11" s="13">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11" s="13">
         <v>319</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P11" s="14">
         <v>717</v>
@@ -1839,28 +1842,22 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>717</v>
+        <v>202</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="13">
         <v>117</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="13">
-        <v>105</v>
-      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" s="13" t="s">
         <v>4</v>
@@ -1869,13 +1866,13 @@
         <v>319</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" s="14">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -1946,10 +1943,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="17"/>
       <c r="O13" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P13" s="14">
-        <v>200</v>
+        <v>717</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
@@ -2019,10 +2016,10 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P14" s="16">
         <v>717</v>
@@ -2082,7 +2079,7 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>10</v>
@@ -2091,19 +2088,19 @@
         <v>9</v>
       </c>
       <c r="D15" s="11">
-        <v>151</v>
+        <v>319</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="G15" s="11">
         <v>117</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>2</v>
@@ -2112,22 +2109,22 @@
         <v>105</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M15" s="11">
-        <v>319</v>
+        <v>152</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="12">
-        <v>201</v>
+        <v>717</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -2191,43 +2188,43 @@
         <v>9</v>
       </c>
       <c r="D16" s="13">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="E16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="G16" s="13">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>2</v>
       </c>
       <c r="J16" s="13">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M16" s="13">
-        <v>319</v>
+        <v>404</v>
       </c>
       <c r="N16" s="13" t="s">
         <v>55</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P16" s="14">
-        <v>318</v>
+        <v>717</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -2291,37 +2288,43 @@
         <v>12</v>
       </c>
       <c r="D17" s="15">
-        <v>105</v>
+        <v>308</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="G17" s="15">
         <v>117</v>
       </c>
       <c r="H17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="15">
+        <v>105</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="L17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="M17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
       <c r="N17" s="15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P17" s="16">
-        <v>151</v>
+        <v>717</v>
       </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -2378,7 +2381,7 @@
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>11</v>
@@ -2387,38 +2390,38 @@
         <v>12</v>
       </c>
       <c r="D18" s="11">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="11">
+        <v>117</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="11">
-        <v>412</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="11">
-        <v>319</v>
-      </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" s="12">
+        <v>717</v>
+      </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
@@ -2481,32 +2484,38 @@
         <v>12</v>
       </c>
       <c r="D19" s="13">
-        <v>318</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+        <v>154</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H19" s="13" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="14">
-        <v>717</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J19" s="13">
+        <v>105</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="13">
+        <v>319</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
@@ -2569,32 +2578,32 @@
         <v>12</v>
       </c>
       <c r="D20" s="15">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="15">
-        <v>105</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="J20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="16"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="16">
+        <v>717</v>
+      </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
@@ -4741,6 +4750,6 @@
     <mergeCell ref="N12:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{788B4576-5F22-4FDF-BD13-4FAD359BEE3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0F9F9D7-E85A-4A67-BB10-829B4604197C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{56FC90AA-9DC2-4657-A8A3-B7B69C54BCDD}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{EEB7F0DC-3320-4C88-9922-7D4A509396ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -826,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C50C0A-EEF7-405C-AE0F-8BC419B56B2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0439BC8-F426-45DD-961D-302B2CCDFC0C}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>5</v>
@@ -998,7 +998,7 @@
         <v>46</v>
       </c>
       <c r="P3" s="12">
-        <v>122</v>
+        <v>717</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -1062,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="13">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>14</v>
@@ -1071,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="13">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>26</v>
@@ -1089,7 +1089,7 @@
         <v>37</v>
       </c>
       <c r="M4" s="13">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>47</v>
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>218</v>
+        <v>416</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>14</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="13">
-        <v>322</v>
+        <v>412</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>26</v>
@@ -1355,7 +1355,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="11">
-        <v>322</v>
+        <v>122</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>26</v>
@@ -1446,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="13">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>17</v>
@@ -1455,7 +1455,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="13">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>28</v>
@@ -1546,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="15">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>17</v>
@@ -1555,7 +1555,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="15">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>24</v>
@@ -1573,7 +1573,7 @@
         <v>37</v>
       </c>
       <c r="M9" s="15">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>5</v>
@@ -1648,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="11">
-        <v>104</v>
+        <v>409</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>17</v>
@@ -1657,7 +1657,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="11">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>29</v>
@@ -1666,7 +1666,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="11">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>40</v>
@@ -1748,7 +1748,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="13">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>19</v>
@@ -1757,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="13">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -1842,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>20</v>
@@ -1946,7 +1946,7 @@
         <v>30</v>
       </c>
       <c r="P13" s="14">
-        <v>717</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
@@ -2022,7 +2022,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="16">
-        <v>717</v>
+        <v>413</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -2088,7 +2088,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="11">
-        <v>319</v>
+        <v>218</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>20</v>
@@ -2115,7 +2115,7 @@
         <v>42</v>
       </c>
       <c r="M15" s="11">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>56</v>
@@ -2188,7 +2188,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="13">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>22</v>
@@ -2215,7 +2215,7 @@
         <v>42</v>
       </c>
       <c r="M16" s="13">
-        <v>404</v>
+        <v>319</v>
       </c>
       <c r="N16" s="13" t="s">
         <v>55</v>
@@ -2288,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="15">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>22</v>
@@ -2390,7 +2390,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="11">
-        <v>218</v>
+        <v>412</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>22</v>
@@ -2484,7 +2484,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="13">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>5</v>
@@ -2578,7 +2578,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="15">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0F9F9D7-E85A-4A67-BB10-829B4604197C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A02AF54-E98E-4B03-B4F6-40395E76BBAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{EEB7F0DC-3320-4C88-9922-7D4A509396ED}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{87ADF243-1374-4DE8-8066-B3AE8D1D098F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -826,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0439BC8-F426-45DD-961D-302B2CCDFC0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684579AD-4962-4DF7-9045-D2DBCDBD95E5}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>5</v>
@@ -989,7 +989,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="11">
-        <v>319</v>
+        <v>201</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>45</v>
@@ -1062,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="13">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>14</v>
@@ -1071,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="13">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>26</v>
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>14</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="13">
-        <v>412</v>
+        <v>123</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>26</v>
@@ -1355,7 +1355,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="11">
-        <v>122</v>
+        <v>303</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>26</v>
@@ -1446,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="13">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>17</v>
@@ -1546,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="15">
-        <v>303</v>
+        <v>117</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>17</v>
@@ -1555,7 +1555,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="15">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>24</v>
@@ -1573,7 +1573,7 @@
         <v>37</v>
       </c>
       <c r="M9" s="15">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>5</v>
@@ -1648,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="11">
-        <v>409</v>
+        <v>104</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>17</v>
@@ -1657,7 +1657,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="11">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>29</v>
@@ -1666,7 +1666,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="11">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>40</v>
@@ -1748,7 +1748,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="13">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>19</v>
@@ -1757,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="13">
-        <v>109</v>
+        <v>322</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -1842,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>20</v>
@@ -1946,7 +1946,7 @@
         <v>30</v>
       </c>
       <c r="P13" s="14">
-        <v>211</v>
+        <v>717</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
@@ -2022,7 +2022,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="16">
-        <v>413</v>
+        <v>322</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -2088,7 +2088,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="11">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>20</v>
@@ -2115,7 +2115,7 @@
         <v>42</v>
       </c>
       <c r="M15" s="11">
-        <v>319</v>
+        <v>104</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>56</v>
@@ -2124,7 +2124,7 @@
         <v>57</v>
       </c>
       <c r="P15" s="12">
-        <v>717</v>
+        <v>308</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -2188,7 +2188,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="13">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>22</v>
@@ -2288,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="15">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>22</v>
@@ -2390,7 +2390,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="11">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>22</v>
@@ -2484,7 +2484,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="13">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>5</v>
@@ -2578,7 +2578,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="15">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A02AF54-E98E-4B03-B4F6-40395E76BBAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81B31589-D8A9-48A4-9469-FE05E2E13A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{87ADF243-1374-4DE8-8066-B3AE8D1D098F}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{9BA206A7-7013-4ED7-9B8F-1A27C9FECCC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="65">
   <si>
     <t>А40</t>
   </si>
@@ -826,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684579AD-4962-4DF7-9045-D2DBCDBD95E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1564DAC-7254-4F9C-A0CD-E15456B40F9F}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>122</v>
+        <v>310</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>5</v>
@@ -989,7 +989,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="11">
-        <v>201</v>
+        <v>319</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>45</v>
@@ -1062,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="13">
-        <v>213</v>
+        <v>413</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>14</v>
@@ -1071,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="13">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>26</v>
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>405</v>
+        <v>213</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>14</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="13">
-        <v>123</v>
+        <v>314</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>26</v>
@@ -1355,7 +1355,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="11">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>26</v>
@@ -1382,7 +1382,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="12">
-        <v>717</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -1446,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="13">
-        <v>217</v>
+        <v>321</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>17</v>
@@ -1455,7 +1455,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="13">
-        <v>219</v>
+        <v>403</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>28</v>
@@ -1546,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="15">
-        <v>117</v>
+        <v>416</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>17</v>
@@ -1554,8 +1554,8 @@
       <c r="F9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="15">
-        <v>410</v>
+      <c r="G9" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>24</v>
@@ -1648,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="11">
-        <v>104</v>
+        <v>321</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>17</v>
@@ -1657,7 +1657,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="11">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>29</v>
@@ -1666,7 +1666,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="11">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>40</v>
@@ -1748,7 +1748,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="13">
-        <v>416</v>
+        <v>317</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>19</v>
@@ -1842,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>20</v>
@@ -2022,7 +2022,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="16">
-        <v>322</v>
+        <v>717</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -2088,7 +2088,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="11">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>20</v>
@@ -2115,7 +2115,7 @@
         <v>42</v>
       </c>
       <c r="M15" s="11">
-        <v>104</v>
+        <v>308</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>56</v>
@@ -2124,7 +2124,7 @@
         <v>57</v>
       </c>
       <c r="P15" s="12">
-        <v>308</v>
+        <v>717</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -2188,7 +2188,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="13">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>22</v>
@@ -2215,7 +2215,7 @@
         <v>42</v>
       </c>
       <c r="M16" s="13">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="N16" s="13" t="s">
         <v>55</v>
@@ -2288,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="15">
-        <v>206</v>
+        <v>304</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>22</v>
@@ -2484,7 +2484,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="13">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>5</v>
@@ -2578,7 +2578,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="15">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -2602,7 +2602,7 @@
         <v>33</v>
       </c>
       <c r="P20" s="16">
-        <v>717</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81B31589-D8A9-48A4-9469-FE05E2E13A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A308D045-BF16-42E4-8DAC-C2D947583D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{9BA206A7-7013-4ED7-9B8F-1A27C9FECCC0}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{39E22C4C-FDBA-4510-B46B-73ABF8350C03}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="64">
   <si>
     <t>А40</t>
   </si>
@@ -75,22 +75,19 @@
     <t>Ел41</t>
   </si>
   <si>
+    <t>Обчислювальна техніка і програмування</t>
+  </si>
+  <si>
     <t>Налагодження електроустановок</t>
   </si>
   <si>
     <t>Григор'єв М.Ю.</t>
   </si>
   <si>
-    <t>Надійність електроприводів</t>
-  </si>
-  <si>
     <t>Монтаж, експлуатація і ремонт електроустаткування</t>
   </si>
   <si>
     <t>Білоконь С.Ф.</t>
-  </si>
-  <si>
-    <t>Обчислювальна техніка і програмування</t>
   </si>
   <si>
     <t>Електроустаткування підприємств і цивільних споруд</t>
@@ -826,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1564DAC-7254-4F9C-A0CD-E15456B40F9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389E931E-BAA5-4A07-A19A-947A158B7EDF}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -853,7 +850,7 @@
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -884,17 +881,17 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="9"/>
@@ -953,7 +950,7 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -962,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>5</v>
@@ -974,28 +971,28 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="J3" s="11">
         <v>105</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="11">
-        <v>319</v>
+        <v>217</v>
       </c>
       <c r="N3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="P3" s="12">
         <v>717</v>
@@ -1062,40 +1059,40 @@
         <v>4</v>
       </c>
       <c r="D4" s="13">
-        <v>413</v>
+        <v>321</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G4" s="13">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="J4" s="13">
         <v>105</v>
       </c>
       <c r="K4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="M4" s="13">
-        <v>319</v>
+        <v>206</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4" s="14">
         <v>717</v>
@@ -1162,40 +1159,40 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="13">
-        <v>314</v>
+        <v>6</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="J5" s="13">
         <v>105</v>
       </c>
       <c r="K5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="M5" s="13">
         <v>319</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" s="14">
         <v>717</v>
@@ -1274,10 +1271,10 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P6" s="16">
         <v>717</v>
@@ -1337,7 +1334,7 @@
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>5</v>
@@ -1349,40 +1346,40 @@
         <v>7</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="11">
-        <v>409</v>
+        <v>201</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="J7" s="11">
         <v>105</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="11">
         <v>319</v>
       </c>
       <c r="N7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="P7" s="12">
-        <v>306</v>
+        <v>717</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -1446,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="13">
-        <v>321</v>
+        <v>208</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>17</v>
@@ -1455,31 +1452,31 @@
         <v>18</v>
       </c>
       <c r="G8" s="13">
-        <v>403</v>
+        <v>209</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="13">
         <v>105</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" s="13">
         <v>319</v>
       </c>
       <c r="N8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="P8" s="14">
         <v>717</v>
@@ -1546,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="15">
-        <v>416</v>
+        <v>219</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>17</v>
@@ -1554,23 +1551,23 @@
       <c r="F9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>7</v>
+      <c r="G9" s="15">
+        <v>216</v>
       </c>
       <c r="H9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="J9" s="15">
         <v>105</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9" s="15">
         <v>319</v>
@@ -1639,7 +1636,7 @@
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>8</v>
@@ -1648,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="11">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>17</v>
@@ -1657,34 +1654,34 @@
         <v>18</v>
       </c>
       <c r="G10" s="11">
-        <v>306</v>
+        <v>215</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="J10" s="11">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="11">
         <v>319</v>
       </c>
       <c r="N10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="P10" s="12">
-        <v>717</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -1748,34 +1745,34 @@
         <v>9</v>
       </c>
       <c r="D11" s="13">
-        <v>317</v>
+        <v>111</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G11" s="13">
-        <v>322</v>
+        <v>105</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="13">
         <v>319</v>
       </c>
       <c r="N11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="P11" s="14">
         <v>717</v>
@@ -1842,13 +1839,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="E12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="G12" s="13">
         <v>117</v>
@@ -1857,19 +1854,19 @@
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L12" s="13" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="13">
-        <v>319</v>
+        <v>112</v>
       </c>
       <c r="N12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="P12" s="14">
         <v>416</v>
@@ -1943,7 +1940,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="17"/>
       <c r="O13" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P13" s="14">
         <v>717</v>
@@ -2016,10 +2013,10 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P14" s="16">
         <v>717</v>
@@ -2079,7 +2076,7 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>10</v>
@@ -2088,19 +2085,19 @@
         <v>9</v>
       </c>
       <c r="D15" s="11">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="G15" s="11">
         <v>117</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>2</v>
@@ -2109,19 +2106,19 @@
         <v>105</v>
       </c>
       <c r="K15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="M15" s="11">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="N15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="P15" s="12">
         <v>717</v>
@@ -2188,19 +2185,19 @@
         <v>9</v>
       </c>
       <c r="D16" s="13">
-        <v>214</v>
+        <v>416</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="13">
         <v>117</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>2</v>
@@ -2209,19 +2206,19 @@
         <v>105</v>
       </c>
       <c r="K16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="M16" s="13">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="N16" s="13" t="s">
         <v>55</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="P16" s="14">
         <v>717</v>
@@ -2288,19 +2285,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="15">
-        <v>304</v>
+        <v>201</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="15">
         <v>117</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>2</v>
@@ -2308,23 +2305,17 @@
       <c r="J17" s="15">
         <v>105</v>
       </c>
-      <c r="K17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P17" s="16">
-        <v>717</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -2381,7 +2372,7 @@
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>11</v>
@@ -2390,13 +2381,13 @@
         <v>12</v>
       </c>
       <c r="D18" s="11">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="11">
         <v>117</v>
@@ -2410,14 +2401,20 @@
       <c r="J18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="K18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="11">
+        <v>319</v>
+      </c>
       <c r="N18" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="P18" s="12">
         <v>717</v>
@@ -2484,38 +2481,32 @@
         <v>12</v>
       </c>
       <c r="D19" s="13">
-        <v>217</v>
-      </c>
-      <c r="E19" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="I19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="J19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="13">
-        <v>105</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="13">
-        <v>319</v>
-      </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14"/>
+      <c r="P19" s="14">
+        <v>717</v>
+      </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
@@ -2578,32 +2569,32 @@
         <v>12</v>
       </c>
       <c r="D20" s="15">
-        <v>203</v>
+        <v>410</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="15">
+        <v>105</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="L20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="M20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" s="16">
-        <v>317</v>
-      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A308D045-BF16-42E4-8DAC-C2D947583D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{939AAF29-FA9C-41F6-BD68-A8E9B5706BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{39E22C4C-FDBA-4510-B46B-73ABF8350C03}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{E4637DFE-51E3-4FFB-B6FA-D750D58F3623}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389E931E-BAA5-4A07-A19A-947A158B7EDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DD97C7-10D8-4F9A-A96F-833C9767AC99}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -959,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>5</v>
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="11">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>44</v>
@@ -1059,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="13">
-        <v>321</v>
+        <v>153</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>14</v>
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="13">
-        <v>218</v>
+        <v>416</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>25</v>
@@ -1086,7 +1086,7 @@
         <v>36</v>
       </c>
       <c r="M4" s="13">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>46</v>
@@ -1159,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>5</v>
@@ -1352,7 +1352,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="11">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>25</v>
@@ -1443,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="13">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>17</v>
@@ -1452,7 +1452,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="13">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>27</v>
@@ -1543,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="15">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>17</v>
@@ -1552,7 +1552,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="15">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>23</v>
@@ -1561,7 +1561,7 @@
         <v>24</v>
       </c>
       <c r="J9" s="15">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>37</v>
@@ -1645,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="11">
-        <v>317</v>
+        <v>208</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>17</v>
@@ -1654,7 +1654,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="11">
-        <v>215</v>
+        <v>321</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>28</v>
@@ -1681,7 +1681,7 @@
         <v>51</v>
       </c>
       <c r="P10" s="12">
-        <v>210</v>
+        <v>717</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -1745,7 +1745,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="13">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>15</v>
@@ -1754,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="13">
-        <v>105</v>
+        <v>311</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -1848,7 +1848,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="13">
-        <v>117</v>
+        <v>318</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -1860,7 +1860,7 @@
         <v>4</v>
       </c>
       <c r="M12" s="13">
-        <v>112</v>
+        <v>319</v>
       </c>
       <c r="N12" s="17" t="s">
         <v>52</v>
@@ -1869,7 +1869,7 @@
         <v>53</v>
       </c>
       <c r="P12" s="14">
-        <v>416</v>
+        <v>717</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -1943,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="P13" s="14">
-        <v>717</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
@@ -2019,7 +2019,7 @@
         <v>32</v>
       </c>
       <c r="P14" s="16">
-        <v>717</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -2085,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="11">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>19</v>
@@ -2212,7 +2212,7 @@
         <v>41</v>
       </c>
       <c r="M16" s="13">
-        <v>153</v>
+        <v>413</v>
       </c>
       <c r="N16" s="13" t="s">
         <v>55</v>
@@ -2221,7 +2221,7 @@
         <v>56</v>
       </c>
       <c r="P16" s="14">
-        <v>717</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -2285,7 +2285,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="15">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>21</v>
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="15">
-        <v>105</v>
+        <v>318</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -2315,7 +2315,7 @@
         <v>32</v>
       </c>
       <c r="P17" s="16">
-        <v>303</v>
+        <v>717</v>
       </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -2381,7 +2381,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="11">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>21</v>
@@ -2481,7 +2481,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="13">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -2569,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="15">
-        <v>410</v>
+        <v>301</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{939AAF29-FA9C-41F6-BD68-A8E9B5706BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AABCC4C-68C2-4660-89DF-0AF414E097AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{E4637DFE-51E3-4FFB-B6FA-D750D58F3623}"/>
+    <workbookView xWindow="3900" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{37E6028B-0DDF-4CEE-8327-EED229FA8B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="64">
   <si>
     <t>А40</t>
   </si>
@@ -823,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DD97C7-10D8-4F9A-A96F-833C9767AC99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DBA039-6021-48AF-B135-8155C7E2A752}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -959,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>5</v>
@@ -1059,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="13">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>14</v>
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="13">
-        <v>416</v>
+        <v>152</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>25</v>
@@ -1159,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>5</v>
@@ -1195,7 +1195,7 @@
         <v>24</v>
       </c>
       <c r="P5" s="14">
-        <v>717</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -1352,7 +1352,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="11">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>25</v>
@@ -1443,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="13">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>17</v>
@@ -1452,7 +1452,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="13">
-        <v>152</v>
+        <v>412</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>27</v>
@@ -1543,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="15">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>17</v>
@@ -1552,7 +1552,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="15">
-        <v>105</v>
+        <v>302</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>23</v>
@@ -1561,7 +1561,7 @@
         <v>24</v>
       </c>
       <c r="J9" s="15">
-        <v>122</v>
+        <v>717</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>37</v>
@@ -1645,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>17</v>
@@ -1654,7 +1654,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="11">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>28</v>
@@ -1663,7 +1663,7 @@
         <v>29</v>
       </c>
       <c r="J10" s="11">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>39</v>
@@ -1745,7 +1745,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="13">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>15</v>
@@ -1754,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="13">
-        <v>311</v>
+        <v>123</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -1839,7 +1839,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>19</v>
@@ -1848,11 +1848,17 @@
         <v>20</v>
       </c>
       <c r="G12" s="13">
-        <v>318</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="13">
+        <v>105</v>
+      </c>
       <c r="K12" s="13" t="s">
         <v>34</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>29</v>
       </c>
       <c r="P13" s="14">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
@@ -2019,7 +2025,7 @@
         <v>32</v>
       </c>
       <c r="P14" s="16">
-        <v>411</v>
+        <v>717</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -2085,7 +2091,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>19</v>
@@ -2112,7 +2118,7 @@
         <v>41</v>
       </c>
       <c r="M15" s="11">
-        <v>319</v>
+        <v>104</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>55</v>
@@ -2185,7 +2191,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="13">
-        <v>416</v>
+        <v>153</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>21</v>
@@ -2212,16 +2218,16 @@
         <v>41</v>
       </c>
       <c r="M16" s="13">
-        <v>413</v>
+        <v>319</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="P16" s="14">
-        <v>206</v>
+        <v>717</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -2285,7 +2291,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="15">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>21</v>
@@ -2297,19 +2303,19 @@
         <v>117</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="15">
-        <v>318</v>
+        <v>6</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O17" s="15" t="s">
         <v>32</v>
@@ -2381,7 +2387,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="11">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>21</v>
@@ -2481,32 +2487,32 @@
         <v>12</v>
       </c>
       <c r="D19" s="13">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="13">
+        <v>105</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="L19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="M19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="14">
-        <v>717</v>
-      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
@@ -2569,7 +2575,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="15">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -2592,9 +2598,15 @@
       <c r="M20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="16"/>
+      <c r="N20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="16">
+        <v>717</v>
+      </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE0BFE43-9A42-486B-AE5A-9231116F98B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B6351E2-870B-4366-A13D-3E7EA933C7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{95415832-8DFF-4A71-9FEF-DD079A30E604}"/>
+    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{C9A949EF-0EA7-42E1-BAF7-937B653DAD69}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,6 +475,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -823,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0287B7F-FE62-4EA7-8630-3449707BE4AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5322FA69-C754-42B1-8585-6555C0FE1C9A}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -869,7 +869,7 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="BP2" s="10"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1051,7 +1051,7 @@
       <c r="BP3" s="10"/>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="BP4" s="10"/>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="BP5" s="10"/>
     </row>
     <row r="6" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="BP6" s="10"/>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1435,7 +1435,7 @@
       <c r="BP7" s="10"/>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
@@ -1535,7 +1535,7 @@
       <c r="BP8" s="10"/>
     </row>
     <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="BP9" s="10"/>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1737,7 +1737,7 @@
       <c r="BP10" s="10"/>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="BP11" s="10"/>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="BP12" s="10"/>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1999,7 +1999,7 @@
       <c r="BP13" s="10"/>
     </row>
     <row r="14" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -2075,7 +2075,7 @@
       <c r="BP14" s="10"/>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -2171,7 +2171,7 @@
       <c r="BP15" s="10"/>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="13" t="s">
         <v>10</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="BP16" s="10"/>
     </row>
     <row r="17" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="15" t="s">
         <v>11</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="BP17" s="10"/>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -2467,7 +2467,7 @@
       <c r="BP18" s="10"/>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="13" t="s">
         <v>11</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="BP19" s="10"/>
     </row>
     <row r="20" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="15" t="s">
         <v>11</v>
       </c>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B6351E2-870B-4366-A13D-3E7EA933C7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{862FF213-DE8A-43FF-9A75-5EFB4CF2568D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{C9A949EF-0EA7-42E1-BAF7-937B653DAD69}"/>
+    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{4F4537D3-1FEE-4DFA-83BA-77B6952D5922}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="64">
   <si>
     <t>А40</t>
   </si>
@@ -75,21 +75,24 @@
     <t>Ел41</t>
   </si>
   <si>
+    <t>Налагодження електроустановок</t>
+  </si>
+  <si>
+    <t>Григор'єв М.Ю.</t>
+  </si>
+  <si>
     <t>Обчислювальна техніка і програмування</t>
   </si>
   <si>
-    <t>Налагодження електроустановок</t>
-  </si>
-  <si>
-    <t>Григор'єв М.Ю.</t>
-  </si>
-  <si>
     <t>Монтаж, експлуатація і ремонт електроустаткування</t>
   </si>
   <si>
     <t>Білоконь С.Ф.</t>
   </si>
   <si>
+    <t>Надійність електроприводів</t>
+  </si>
+  <si>
     <t>Електроустаткування підприємств і цивільних споруд</t>
   </si>
   <si>
@@ -157,9 +160,6 @@
   </si>
   <si>
     <t>Шурпан М.М.</t>
-  </si>
-  <si>
-    <t>Опорядження деревини і деревних матеріалів</t>
   </si>
   <si>
     <t>П43</t>
@@ -823,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5322FA69-C754-42B1-8585-6555C0FE1C9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9EAAD9-929E-4081-B7DE-4F0E26453F06}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -840,7 +840,7 @@
     <col min="8" max="8" width="51" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="49.42578125" bestFit="1" customWidth="1"/>
@@ -881,12 +881,12 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -959,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>5</v>
@@ -971,16 +971,16 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="11">
         <v>105</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>4</v>
@@ -995,7 +995,7 @@
         <v>45</v>
       </c>
       <c r="P3" s="12">
-        <v>717</v>
+        <v>153</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -1059,31 +1059,31 @@
         <v>4</v>
       </c>
       <c r="D4" s="13">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="13">
-        <v>206</v>
+        <v>6</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="13">
         <v>105</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="13">
         <v>319</v>
@@ -1092,7 +1092,7 @@
         <v>46</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" s="14">
         <v>717</v>
@@ -1159,31 +1159,31 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="G5" s="13">
+        <v>104</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" s="13">
         <v>105</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" s="13">
         <v>319</v>
@@ -1192,7 +1192,7 @@
         <v>46</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="14">
         <v>717</v>
@@ -1274,7 +1274,7 @@
         <v>47</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" s="16">
         <v>717</v>
@@ -1346,28 +1346,28 @@
         <v>7</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" s="11">
         <v>105</v>
       </c>
       <c r="K7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="11">
         <v>319</v>
@@ -1443,31 +1443,31 @@
         <v>9</v>
       </c>
       <c r="D8" s="13">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G8" s="13">
-        <v>219</v>
+        <v>404</v>
       </c>
       <c r="H8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="J8" s="13">
         <v>105</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="13">
         <v>319</v>
@@ -1543,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="15">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>17</v>
@@ -1552,22 +1552,22 @@
         <v>18</v>
       </c>
       <c r="G9" s="15">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="15">
         <v>105</v>
       </c>
       <c r="K9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="M9" s="15">
         <v>319</v>
@@ -1645,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="11">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>17</v>
@@ -1654,25 +1654,25 @@
         <v>18</v>
       </c>
       <c r="G10" s="11">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J10" s="11">
-        <v>214</v>
+        <v>403</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M10" s="11">
-        <v>319</v>
+        <v>105</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>50</v>
@@ -1745,25 +1745,25 @@
         <v>9</v>
       </c>
       <c r="D11" s="13">
-        <v>301</v>
+        <v>404</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" s="13">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11" s="13">
         <v>319</v>
@@ -1845,16 +1845,22 @@
         <v>19</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G12" s="13">
-        <v>117</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="K12" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" s="13" t="s">
         <v>4</v>
@@ -1940,7 +1946,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="17"/>
       <c r="O13" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P13" s="14">
         <v>717</v>
@@ -2016,7 +2022,7 @@
         <v>54</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P14" s="16">
         <v>717</v>
@@ -2085,19 +2091,19 @@
         <v>9</v>
       </c>
       <c r="D15" s="11">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="11">
         <v>117</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>2</v>
@@ -2106,17 +2112,23 @@
         <v>105</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M15" s="11">
-        <v>319</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
+        <v>403</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="12">
+        <v>717</v>
+      </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -2182,16 +2194,16 @@
         <v>200</v>
       </c>
       <c r="E16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="G16" s="13">
         <v>117</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>2</v>
@@ -2200,22 +2212,22 @@
         <v>105</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M16" s="13">
         <v>319</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P16" s="14">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -2279,19 +2291,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="15">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="G17" s="15">
         <v>117</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>2</v>
@@ -2303,10 +2315,10 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P17" s="16">
         <v>717</v>
@@ -2375,13 +2387,13 @@
         <v>12</v>
       </c>
       <c r="D18" s="11">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="G18" s="11">
         <v>117</v>
@@ -2395,20 +2407,14 @@
       <c r="J18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="11">
-        <v>319</v>
-      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="11" t="s">
         <v>57</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P18" s="12">
         <v>717</v>
@@ -2475,32 +2481,38 @@
         <v>12</v>
       </c>
       <c r="D19" s="13">
-        <v>403</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+        <v>209</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="13">
+        <v>117</v>
+      </c>
       <c r="H19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="13">
+        <v>105</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="L19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="M19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="14">
-        <v>717</v>
-      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
@@ -2569,10 +2581,10 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J20" s="15">
         <v>105</v>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 4 курс.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{862FF213-DE8A-43FF-9A75-5EFB4CF2568D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF21BB15-3F60-41E5-B661-C6E34F432E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{4F4537D3-1FEE-4DFA-83BA-77B6952D5922}"/>
+    <workbookView xWindow="14805" yWindow="1095" windowWidth="13995" windowHeight="11505" xr2:uid="{1A0F4F8E-DABF-486D-9419-51A91BCF969B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="64">
   <si>
     <t>А40</t>
   </si>
@@ -183,6 +177,9 @@
     <t>Камінська М.Б.</t>
   </si>
   <si>
+    <t>Архітектура комп'ютерів</t>
+  </si>
+  <si>
     <t>Інструментальні засоби візуального програмування</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
   </si>
   <si>
     <t>Халіф О.Р.</t>
-  </si>
-  <si>
-    <t>Архітектура комп'ютерів</t>
   </si>
   <si>
     <t>Розробка WEB-застосувань</t>
@@ -823,7 +817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9EAAD9-929E-4081-B7DE-4F0E26453F06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9461B-ACD9-41AE-8819-AE0F52FCCF42}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -959,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>5</v>
@@ -995,7 +989,7 @@
         <v>45</v>
       </c>
       <c r="P3" s="12">
-        <v>153</v>
+        <v>717</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -1059,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="13">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>5</v>
@@ -1095,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="P4" s="14">
-        <v>717</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -1159,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>123</v>
+        <v>321</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>14</v>
@@ -1168,7 +1162,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="13">
-        <v>104</v>
+        <v>305</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>26</v>
@@ -1352,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="11">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>26</v>
@@ -1443,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="13">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>16</v>
@@ -1452,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="13">
-        <v>404</v>
+        <v>152</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>28</v>
@@ -1543,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="15">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>17</v>
@@ -1552,7 +1546,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="15">
-        <v>214</v>
+        <v>411</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>24</v>
@@ -1573,13 +1567,13 @@
         <v>319</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="P9" s="16">
+        <v>717</v>
       </c>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -1645,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="11">
-        <v>210</v>
+        <v>413</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>17</v>
@@ -1654,16 +1648,16 @@
         <v>18</v>
       </c>
       <c r="G10" s="11">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="11">
-        <v>403</v>
+        <v>6</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>40</v>
@@ -1672,16 +1666,16 @@
         <v>37</v>
       </c>
       <c r="M10" s="11">
-        <v>105</v>
+        <v>319</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="12">
-        <v>717</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -1745,7 +1739,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="13">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>17</v>
@@ -1754,11 +1748,17 @@
         <v>18</v>
       </c>
       <c r="G11" s="13">
-        <v>122</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+        <v>105</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="13">
+        <v>208</v>
+      </c>
       <c r="K11" s="13" t="s">
         <v>40</v>
       </c>
@@ -1769,10 +1769,10 @@
         <v>319</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P11" s="14">
         <v>717</v>
@@ -1839,7 +1839,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>19</v>
@@ -1848,17 +1848,11 @@
         <v>12</v>
       </c>
       <c r="G12" s="13">
-        <v>108</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>7</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="13" t="s">
         <v>35</v>
       </c>
@@ -1869,13 +1863,13 @@
         <v>319</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" s="14">
-        <v>416</v>
+        <v>717</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -1949,7 +1943,7 @@
         <v>30</v>
       </c>
       <c r="P13" s="14">
-        <v>717</v>
+        <v>304</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
@@ -2019,13 +2013,13 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="16">
-        <v>717</v>
+        <v>6</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -2091,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="11">
-        <v>310</v>
+        <v>112</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>20</v>
@@ -2118,7 +2112,7 @@
         <v>42</v>
       </c>
       <c r="M15" s="11">
-        <v>403</v>
+        <v>319</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>55</v>
@@ -2191,7 +2185,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="13">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>20</v>
@@ -2211,23 +2205,17 @@
       <c r="J16" s="13">
         <v>105</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="13">
-        <v>319</v>
-      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
       <c r="N16" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O16" s="13" t="s">
         <v>33</v>
       </c>
       <c r="P16" s="14">
-        <v>403</v>
+        <v>717</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -2291,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="15">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>22</v>
@@ -2311,9 +2299,15 @@
       <c r="J17" s="15">
         <v>105</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
+      <c r="K17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="15">
+        <v>319</v>
+      </c>
       <c r="N17" s="15" t="s">
         <v>57</v>
       </c>
@@ -2387,7 +2381,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="11">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>22</v>
@@ -2481,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="13">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>22</v>
@@ -2510,9 +2504,15 @@
       <c r="M19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14"/>
+      <c r="N19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="14">
+        <v>717</v>
+      </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
@@ -2575,7 +2575,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="15">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
